--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed1/result_data_KNN.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.142000000000001</v>
+        <v>9.194999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.087999999999999</v>
+        <v>-8.081999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.298</v>
+        <v>5.304</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.868</v>
+        <v>-7.072</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.566000000000001</v>
+        <v>4.949</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.440000000000001</v>
+        <v>-8.511000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.016000000000002</v>
+        <v>-8.004999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.716000000000001</v>
+        <v>-7.954000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.482</v>
+        <v>5.226000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.27</v>
+        <v>5.265</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -872,7 +872,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.231999999999999</v>
+        <v>-7.597</v>
       </c>
     </row>
     <row r="32">
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.692</v>
+        <v>6.448</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,13 +992,13 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.144</v>
+        <v>9.179</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.332000000000003</v>
+        <v>-7.967000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.358000000000001</v>
+        <v>-8.111000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.542</v>
+        <v>-7.766</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.188</v>
+        <v>-7.497999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.286</v>
+        <v>5.494999999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>4.659999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.868</v>
+        <v>-6.923</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.659999999999999</v>
+        <v>-7.220000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.014</v>
+        <v>5.013</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.492</v>
+        <v>-7.787999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.862</v>
+        <v>-7.793000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.209999999999999</v>
+        <v>-8.292</v>
       </c>
     </row>
     <row r="90">
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.572</v>
+        <v>-7.784000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>6.086</v>
+        <v>6.1</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
